--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Bill Of Materials.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Bill Of Materials.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD82BB6-51B2-44A4-A0D8-4005EEEC8D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C65C11B-666D-4A37-86BB-83D49B9DA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="45" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d parts" sheetId="1" r:id="rId1"/>
     <sheet name="Bearings" sheetId="2" r:id="rId2"/>
     <sheet name="Shafts" sheetId="3" r:id="rId3"/>
     <sheet name="Scews And Nuts" sheetId="4" r:id="rId4"/>
+    <sheet name="Motors" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t>Joint 01</t>
   </si>
@@ -198,13 +199,157 @@
   </si>
   <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Timing Pulley GT2 (20 Teeth-5mm Inner Diameter-6mm Width)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://store.fut-electronics.com/products/timing-pulley-gt2-20-teeth-5mm-inner-diameter?_pos=1&amp;_sid=6231d177a&amp;_ss=r </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Shaft Diameter</t>
+  </si>
+  <si>
+    <t>Nema 17</t>
+  </si>
+  <si>
+    <t>Dimenssions</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Shaft Length</t>
+  </si>
+  <si>
+    <t>https://store.fut-electronics.com/products/stepper-motor-nema-17-2-kg-cm?srsltid=AfmBOor7iUlVBli6P_R2XbglL03inGiWnRub-3u4NxTeTpoBcFA3qkAD</t>
+  </si>
+  <si>
+    <t>https://store.fut-electronics.com/products/idler-pulley-kit?_pos=1&amp;_sid=9ef139122&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>Has  625 2RS (5mm Bore)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bearings are written again in the bearings Section</t>
+  </si>
+  <si>
+    <t>Custmized shaft</t>
+  </si>
+  <si>
+    <t>Dimennsions</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>Add them fel design</t>
+  </si>
+  <si>
+    <t>Nema 17 Gear 5:1</t>
+  </si>
+  <si>
+    <t>https://ampere-electronics.com/product/nema17-stepper-motor-with-5-181-planetary-gearbox-17hs4401s-pg518/</t>
+  </si>
+  <si>
+    <t>Et2aked men shaft diameter bta3 el motor ashan frl data sheet kateb 8 msh 7.5</t>
+  </si>
+  <si>
+    <t>Zawedt wahed momken ahtago badal el shaft ele 3al idler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaft </t>
+  </si>
+  <si>
+    <t>5x40</t>
+  </si>
+  <si>
+    <t>Lel idler</t>
+  </si>
+  <si>
+    <t>96x15x13</t>
+  </si>
+  <si>
+    <t>Ashan ylef el heta ele that</t>
+  </si>
+  <si>
+    <t>Arm_joint_03</t>
+  </si>
+  <si>
+    <t>Nema 14 Pulley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data </t>
+  </si>
+  <si>
+    <t>Sceews</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>Part thr</t>
+  </si>
+  <si>
+    <t>Nema 14</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>joint1</t>
+  </si>
+  <si>
+    <t>JOint2</t>
+  </si>
+  <si>
+    <t>JOint3</t>
+  </si>
+  <si>
+    <t>washer</t>
+  </si>
+  <si>
+    <t>8*16*1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +357,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +398,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -486,11 +658,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,9 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,12 +874,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,11 +892,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,18 +1253,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
@@ -929,9 +1277,15 @@
       <c r="D1" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -944,8 +1298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
       <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -954,8 +1308,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
       <c r="B4" s="30"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -964,23 +1318,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="63" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="E5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -990,9 +1353,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1000,9 +1363,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -1010,11 +1373,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1022,9 +1383,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="54" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1032,31 +1395,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40"/>
+      <c r="E11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1066,9 +1447,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1076,9 +1457,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1086,11 +1467,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30" t="s">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1098,9 +1477,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1108,9 +1489,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1118,28 +1499,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
+      <c r="E19" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B8"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{B5095CBD-914B-4D63-BA4A-A2C5AFDF70A8}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{BFB782D1-5E1B-411B-9604-669FC0236F16}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{22D12652-0DAC-4555-B5B2-3D08F290EBA8}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{B8CDC57B-9589-4E49-8A24-F64059F604C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1148,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42527CE2-A18A-49C8-858C-36F840735889}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1726,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -1322,7 +1764,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1796,7 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1828,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="25" t="s">
         <v>39</v>
       </c>
@@ -1408,14 +1850,14 @@
       <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -1452,7 +1894,7 @@
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="65" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -1476,47 +1918,47 @@
       <c r="H10" s="8">
         <v>9</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="67">
         <v>625</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="67">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="67">
         <v>5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="67">
         <v>16</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="67">
         <v>5</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="A12" s="71"/>
       <c r="B12" s="26" t="s">
         <v>35</v>
       </c>
@@ -1538,10 +1980,10 @@
       <c r="H12" s="15">
         <v>5</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
     </row>
@@ -1570,10 +2012,10 @@
       <c r="H13" s="18">
         <v>5</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
     </row>
@@ -2651,45 +3093,559 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;48BEARINGS BOM</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75164901-731D-4805-9898-BAEFBF04B8BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DF173-3712-469C-8216-13FC30CB8ABB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="53.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5B8E9C-ED44-4025-8C06-7A8E6EF3F3CC}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="E3" s="50">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>24</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="E5" s="50">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>24</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{D40B1BD2-F826-4A33-8F0F-ACB54534C7E7}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{16E43108-C78E-4F6A-9639-C208C8803CEC}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{56E3FF70-07CE-4DDB-BD05-5189FAD64199}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Bill Of Materials.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Bill Of Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C65C11B-666D-4A37-86BB-83D49B9DA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7722623-6C02-4C3E-B44E-FCC30BE3858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3d parts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="123">
   <si>
     <t>Joint 01</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Nema 14 Pulley</t>
   </si>
   <si>
-    <t xml:space="preserve">No data </t>
-  </si>
-  <si>
     <t>Sceews</t>
   </si>
   <si>
@@ -330,36 +327,98 @@
     <t>NA</t>
   </si>
   <si>
-    <t>joint1</t>
-  </si>
-  <si>
-    <t>JOint2</t>
-  </si>
-  <si>
-    <t>JOint3</t>
-  </si>
-  <si>
     <t>washer</t>
   </si>
   <si>
     <t>8*16*1</t>
+  </si>
+  <si>
+    <t>M8 80 mm</t>
+  </si>
+  <si>
+    <t>Partialy threaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Mount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT2 Pulley 60 Teeth </t>
+  </si>
+  <si>
+    <t>Nema 14 Round Pulley</t>
+  </si>
+  <si>
+    <t>13x15x145</t>
+  </si>
+  <si>
+    <t>5x170</t>
+  </si>
+  <si>
+    <t>For Joint 05</t>
+  </si>
+  <si>
+    <t>For Joint 04 (The big one)</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>15x20x1.2</t>
+  </si>
+  <si>
+    <t>M3.5</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Joint 05 Arm</t>
+  </si>
+  <si>
+    <t>5*40</t>
+  </si>
+  <si>
+    <t>For idlers</t>
+  </si>
+  <si>
+    <t>Joint 06</t>
+  </si>
+  <si>
+    <t>Zawedt 2 momken ahtago badal el shaft ele 3al idler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT2 Pulley 32 Teeth </t>
+  </si>
+  <si>
+    <t>Saft</t>
+  </si>
+  <si>
+    <t>5x30</t>
+  </si>
+  <si>
+    <t>5x13</t>
+  </si>
+  <si>
+    <t>For Pulley</t>
+  </si>
+  <si>
+    <t>For Mounting</t>
+  </si>
+  <si>
+    <t>NEMA 08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -744,22 +803,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -811,15 +888,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,134 +913,140 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1344,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1285,10 +1362,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1299,8 +1376,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1309,8 +1386,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1319,31 +1396,31 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1354,8 +1431,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1364,8 +1441,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -1374,8 +1451,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1384,8 +1461,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1396,27 +1473,27 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="64" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1503,7 @@
       <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="28" t="s">
         <v>72</v>
       </c>
       <c r="G12" t="s">
@@ -1434,10 +1511,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1448,8 +1525,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,8 +1535,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1468,8 +1545,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1478,8 +1555,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1490,8 +1567,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1500,18 +1577,18 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G19" t="s">
@@ -1519,7 +1596,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="63" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1533,8 +1610,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1544,26 +1621,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="64" t="s">
+    <row r="22" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>90</v>
+      <c r="E22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="38" t="s">
         <v>48</v>
       </c>
+      <c r="B23" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="70">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A1:B1"/>
@@ -1581,6 +1764,9 @@
     <hyperlink ref="F12" r:id="rId2" xr:uid="{BFB782D1-5E1B-411B-9604-669FC0236F16}"/>
     <hyperlink ref="F19" r:id="rId3" xr:uid="{22D12652-0DAC-4555-B5B2-3D08F290EBA8}"/>
     <hyperlink ref="F11" r:id="rId4" xr:uid="{B8CDC57B-9589-4E49-8A24-F64059F604C7}"/>
+    <hyperlink ref="F22" r:id="rId5" xr:uid="{57F689DF-395D-48AA-BF84-FB717739049F}"/>
+    <hyperlink ref="F25" r:id="rId6" xr:uid="{9E87D0CC-0808-4028-A359-09AC3A206762}"/>
+    <hyperlink ref="F27" r:id="rId7" xr:uid="{2AEEE6F8-83B2-4B34-9795-76910E13B16D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1588,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42527CE2-A18A-49C8-858C-36F840735889}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,18 +1790,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -1642,20 +1828,20 @@
       <c r="H2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1690,8 +1876,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1726,10 +1912,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1764,8 +1950,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1796,8 +1982,8 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1828,8 +2014,8 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1850,20 +2036,20 @@
       <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="58"/>
+      <c r="K8" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1894,10 +2080,10 @@
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1918,1192 +2104,1163 @@
       <c r="H10" s="8">
         <v>9</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="6">
         <v>625</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="6">
         <v>16</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="6">
         <v>5</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="69"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <v>625</v>
       </c>
-      <c r="E12" s="15">
-        <v>4</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17">
         <v>5</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="17">
         <v>16</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="17">
         <v>5</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="18">
-        <v>625</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>5</v>
-      </c>
-      <c r="G13" s="18">
-        <v>16</v>
-      </c>
-      <c r="H13" s="18">
-        <v>5</v>
-      </c>
-      <c r="I13" s="42" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="4">
+        <f>SUM(E3:E12)</f>
+        <v>21</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="4">
-        <f>SUM(E3:E13)</f>
-        <v>21</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4">
+        <v>7002</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUMIF(D2:D97, A20, E2:E97)</f>
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
         <v>32</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>7002</v>
+        <v>51104</v>
       </c>
       <c r="B21" s="4">
-        <f>SUMIF(D2:D98, A21, E2:E98)</f>
-        <v>6</v>
+        <f>SUMIF(D3:D98, A21, E3:E98)</f>
+        <v>3</v>
       </c>
       <c r="C21" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>51104</v>
+      <c r="A22" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="4">
-        <f>SUMIF(D3:D99, A22, E3:E99)</f>
-        <v>3</v>
+        <f>SUMIF(D4:D99, A22, E4:E99)</f>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E22" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>36</v>
+      <c r="A23" s="4">
+        <v>627</v>
       </c>
       <c r="B23" s="4">
-        <f>SUMIF(D4:D100, A23, E4:E100)</f>
-        <v>1</v>
+        <f>SUMIF(D6:D101, A23, E6:E101)</f>
+        <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B24" s="4">
-        <f>SUMIF(D6:D102, A24, E6:E102)</f>
-        <v>2</v>
+        <f>SUMIF(D8:D103, A24, E8:E103)</f>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>625</v>
-      </c>
+      <c r="A25" s="25"/>
       <c r="B25" s="4">
-        <f>SUMIF(D8:D104, A25, E8:E104)</f>
-        <v>9</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+        <f>SUM(B20:B24)</f>
+        <v>21</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="4">
+        <f>SUM(G20:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="4">
-        <f>SUM(B21:B25)</f>
-        <v>21</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="4">
-        <f>SUM(G21:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="10">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -3115,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75164901-731D-4805-9898-BAEFBF04B8BE}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,21 +3310,21 @@
         <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="69" t="s">
         <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3184,16 +3341,103 @@
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3203,10 +3447,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DF173-3712-469C-8216-13FC30CB8ABB}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,10 +3481,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="61" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3254,8 +3498,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
@@ -3267,7 +3511,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
@@ -3279,10 +3523,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="61" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3296,8 +3540,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
@@ -3309,8 +3553,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
@@ -3325,8 +3569,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
@@ -3338,8 +3582,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,8 +3595,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3363,8 +3607,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
@@ -3376,10 +3620,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="61" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3393,8 +3637,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
@@ -3406,7 +3650,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
@@ -3419,13 +3663,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -3434,7 +3678,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,7 +3692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
@@ -3457,6 +3701,73 @@
       </c>
       <c r="E17" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3475,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5B8E9C-ED44-4025-8C06-7A8E6EF3F3CC}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,47 +3797,80 @@
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="3.85546875" style="71" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="61" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="J1" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3539,20 +3883,20 @@
       <c r="D3" s="1">
         <v>42.3</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="29">
         <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>24</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="27" t="s">
         <v>71</v>
       </c>
       <c r="H3" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3571,14 +3915,14 @@
       <c r="F4" s="1">
         <v>17</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="27" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3591,49 +3935,119 @@
       <c r="D5" s="1">
         <v>42.3</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="29">
         <v>5</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="27" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="62">
+        <v>20</v>
+      </c>
+      <c r="K6" s="62">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L6" s="62">
+        <v>5</v>
+      </c>
+      <c r="M6" s="62">
+        <v>10.5</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
